--- a/biology/Zoologie/Boloria_kriemhild/Boloria_kriemhild.xlsx
+++ b/biology/Zoologie/Boloria_kriemhild/Boloria_kriemhild.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boloria kriemhild est une espèce de lépidoptères de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 </t>
@@ -511,14 +523,14 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Boloria kriemhild a été décrite par Strecker en 1879.
 Synonymes :
 Clossiana kriemhild (Strecker, 1879)
-Clossiana luecki Reuss, 1923[1]
-Noms vernaculaires
-en anglais : Relict Fritillary ou Kriemhild Fritillary[1]</t>
+Clossiana luecki Reuss, 1923</t>
         </is>
       </c>
     </row>
@@ -543,10 +555,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>en anglais : Relict Fritillary ou Kriemhild Fritillary</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon au dessus orange orné d'une ligne submarginale de points et d'autres dessins de couleur marron, avec une minime suffusion basale marron aux postérieures.
 Le revers possède une ornementation de chevrons marron et une bande médiane de taches jaunes aux postérieures.
@@ -554,40 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boloria_kriemhild</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boloria_kriemhild</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de mi-juin à début août[2].
-Plantes hôtes
-Ses plantes hôtes sont des Viola[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,17 +625,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de mi-juin à début août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Viola.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boloria kriemhild  réside en Amérique du Nord, dans les Montagnes rocheuses au Montana, au Wyoming, dans l'Idaho et dans l'Utah[1]
-,[3].
-Biotope
-C'est un papillon des zones boisées claires de montagne.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria kriemhild  réside en Amérique du Nord, dans les Montagnes rocheuses au Montana, au Wyoming, dans l'Idaho et dans l'Utah
+,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon des zones boisées claires de montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_kriemhild</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
